--- a/src/main/resources/Certifications.xlsx
+++ b/src/main/resources/Certifications.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Participant's Name</t>
   </si>
@@ -35,27 +35,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Cipri</t>
-  </si>
-  <si>
-    <t>Linux</t>
-  </si>
-  <si>
-    <t>INTERMEDIATE</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>APPROVED</t>
-  </si>
-  <si>
     <t>Ciprian</t>
   </si>
   <si>
@@ -69,6 +48,12 @@
   </si>
   <si>
     <t>ye</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>APPROVED</t>
   </si>
 </sst>
 </file>
@@ -186,29 +171,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
